--- a/biology/Microbiologie/Methylobacterium_symbioticum/Methylobacterium_symbioticum.xlsx
+++ b/biology/Microbiologie/Methylobacterium_symbioticum/Methylobacterium_symbioticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Methylobacterium symbioticum est une espèce de bactéries gram négatives de la famille des Methylobacteriaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Methylobacterium symbioticum est une bactérie gram négative endophyte et photosynthétique fixatrice d'azote atmosphérique. Elle se caractérise par une capacité à fournir de l'azote à la plante de l'air de manière naturelle à travers le complexe nitrogénase. Cette espèce colonise rapidement la phyllosphère de la plante aux premiers stades de son développement en s'établissant dans l'intérieur des cellules photosynthétiques.
 La bactérie a la capacité de convertir l'azote de l'air (N2) en ammonium (NH4+), à travers un procédé régi par le complexe enzyme nitrogénase, en permettant à la plante le métaboliser directement en acides aminés tout au long du cycle de croissance de la culture.
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Methylobacterium symbioticum Pascual (d) et al., 2021[1]. Auparavant classée dans l'ordre des Rhizobiales et la famille des Beijerinckiaceae, elle est depuis 2006 positionnée phylogénétiquement dans la famille des Methylobacteriaceae et l'ordre des Hyphomicrobiales[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Methylobacterium symbioticum Pascual (d) et al., 2021. Auparavant classée dans l'ordre des Rhizobiales et la famille des Beijerinckiaceae, elle est depuis 2006 positionnée phylogénétiquement dans la famille des Methylobacteriaceae et l'ordre des Hyphomicrobiales,.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) José Antonio Pascual, Margarita Ros, Jesus Martínez, Francisco J. Carmona, Antonio Bernabé, Rocío Torres, Teresa Lucena, Rosa Aznar, David R. Arahal et Fernandez Felix, « Methylobacterium symbioticum sp. nov., a new species isolated from spores of Glomus iranicum var. tenuihypharum », Current Microbiology, États-Unis, vol. 77, no 9,‎ septembre 2020, p. 2031–2041 (ISSN 0343-8651, e-ISSN 1432-0991, DOI 10.1007/s00284-020-02101-4).</t>
         </is>
